--- a/pharmacy_combine.xlsx
+++ b/pharmacy_combine.xlsx
@@ -555,7 +555,7 @@
   <dimension ref="A1:AC149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection sqref="A1:AC149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -565,10 +565,10 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -653,11 +653,11 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
-        <v>60</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" t="s">
         <v>29</v>
+      </c>
+      <c r="B2">
+        <v>60</v>
       </c>
       <c r="C2">
         <v>346737</v>
@@ -742,11 +742,11 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
-        <v>60</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" t="s">
         <v>29</v>
+      </c>
+      <c r="B3">
+        <v>60</v>
       </c>
       <c r="C3">
         <v>346737</v>
@@ -831,11 +831,11 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
-        <v>60</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" t="s">
         <v>29</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
       </c>
       <c r="C4">
         <v>346737</v>
@@ -920,11 +920,11 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
-        <v>60</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" t="s">
         <v>29</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
       </c>
       <c r="C5">
         <v>346737</v>
@@ -1009,11 +1009,11 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
-        <v>60</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" t="s">
         <v>29</v>
+      </c>
+      <c r="B6">
+        <v>60</v>
       </c>
       <c r="C6">
         <v>346737</v>
@@ -1098,11 +1098,11 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7">
-        <v>60</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" t="s">
         <v>29</v>
+      </c>
+      <c r="B7">
+        <v>60</v>
       </c>
       <c r="C7">
         <v>346738</v>
@@ -1187,11 +1187,11 @@
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
-        <v>60</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" t="s">
         <v>29</v>
+      </c>
+      <c r="B8">
+        <v>60</v>
       </c>
       <c r="C8">
         <v>346738</v>
@@ -1276,11 +1276,11 @@
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
-        <v>60</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" t="s">
         <v>29</v>
+      </c>
+      <c r="B9">
+        <v>60</v>
       </c>
       <c r="C9">
         <v>346738</v>
@@ -1365,11 +1365,11 @@
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10">
-        <v>60</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" t="s">
         <v>29</v>
+      </c>
+      <c r="B10">
+        <v>60</v>
       </c>
       <c r="C10">
         <v>346738</v>
@@ -1454,11 +1454,11 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11">
-        <v>60</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" t="s">
         <v>29</v>
+      </c>
+      <c r="B11">
+        <v>60</v>
       </c>
       <c r="C11">
         <v>346738</v>
@@ -1543,11 +1543,11 @@
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12">
-        <v>60</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" t="s">
         <v>29</v>
+      </c>
+      <c r="B12">
+        <v>60</v>
       </c>
       <c r="C12">
         <v>346739</v>
@@ -1632,11 +1632,11 @@
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13">
-        <v>60</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" t="s">
         <v>29</v>
+      </c>
+      <c r="B13">
+        <v>60</v>
       </c>
       <c r="C13">
         <v>346739</v>
@@ -1721,11 +1721,11 @@
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14">
-        <v>60</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" t="s">
         <v>29</v>
+      </c>
+      <c r="B14">
+        <v>60</v>
       </c>
       <c r="C14">
         <v>346739</v>
@@ -1810,11 +1810,11 @@
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15">
-        <v>60</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" t="s">
         <v>29</v>
+      </c>
+      <c r="B15">
+        <v>60</v>
       </c>
       <c r="C15">
         <v>346739</v>
@@ -1899,11 +1899,11 @@
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16">
-        <v>60</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="A16" t="s">
         <v>29</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
       </c>
       <c r="C16">
         <v>346739</v>
@@ -1988,11 +1988,11 @@
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17">
-        <v>60</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="A17" t="s">
         <v>29</v>
+      </c>
+      <c r="B17">
+        <v>60</v>
       </c>
       <c r="C17">
         <v>346740</v>
@@ -2077,11 +2077,11 @@
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18">
-        <v>60</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="A18" t="s">
         <v>29</v>
+      </c>
+      <c r="B18">
+        <v>60</v>
       </c>
       <c r="C18">
         <v>346740</v>
@@ -2166,11 +2166,11 @@
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19">
-        <v>60</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="A19" t="s">
         <v>29</v>
+      </c>
+      <c r="B19">
+        <v>60</v>
       </c>
       <c r="C19">
         <v>346740</v>
@@ -2255,11 +2255,11 @@
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20">
-        <v>60</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="A20" t="s">
         <v>29</v>
+      </c>
+      <c r="B20">
+        <v>60</v>
       </c>
       <c r="C20">
         <v>346740</v>
@@ -2344,11 +2344,11 @@
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21">
-        <v>60</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="A21" t="s">
         <v>29</v>
+      </c>
+      <c r="B21">
+        <v>60</v>
       </c>
       <c r="C21">
         <v>346740</v>
@@ -2433,11 +2433,11 @@
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22">
-        <v>60</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="A22" t="s">
         <v>29</v>
+      </c>
+      <c r="B22">
+        <v>60</v>
       </c>
       <c r="C22">
         <v>346741</v>
@@ -2522,11 +2522,11 @@
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23">
-        <v>60</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="A23" t="s">
         <v>29</v>
+      </c>
+      <c r="B23">
+        <v>60</v>
       </c>
       <c r="C23">
         <v>346741</v>
@@ -2611,11 +2611,11 @@
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24">
-        <v>60</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="A24" t="s">
         <v>29</v>
+      </c>
+      <c r="B24">
+        <v>60</v>
       </c>
       <c r="C24">
         <v>346741</v>
@@ -2700,11 +2700,11 @@
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25">
-        <v>60</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="A25" t="s">
         <v>29</v>
+      </c>
+      <c r="B25">
+        <v>60</v>
       </c>
       <c r="C25">
         <v>346741</v>
@@ -2789,11 +2789,11 @@
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26">
-        <v>60</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="A26" t="s">
         <v>29</v>
+      </c>
+      <c r="B26">
+        <v>60</v>
       </c>
       <c r="C26">
         <v>346741</v>
@@ -2878,11 +2878,11 @@
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27">
-        <v>60</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="A27" t="s">
         <v>29</v>
+      </c>
+      <c r="B27">
+        <v>60</v>
       </c>
       <c r="C27">
         <v>346742</v>
@@ -2967,11 +2967,11 @@
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28">
-        <v>60</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="A28" t="s">
         <v>29</v>
+      </c>
+      <c r="B28">
+        <v>60</v>
       </c>
       <c r="C28">
         <v>346742</v>
@@ -3056,11 +3056,11 @@
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29">
-        <v>60</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="A29" t="s">
         <v>29</v>
+      </c>
+      <c r="B29">
+        <v>60</v>
       </c>
       <c r="C29">
         <v>346742</v>
@@ -3145,11 +3145,11 @@
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30">
-        <v>60</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="A30" t="s">
         <v>29</v>
+      </c>
+      <c r="B30">
+        <v>60</v>
       </c>
       <c r="C30">
         <v>346742</v>
@@ -3234,11 +3234,11 @@
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31">
-        <v>60</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="A31" t="s">
         <v>29</v>
+      </c>
+      <c r="B31">
+        <v>60</v>
       </c>
       <c r="C31">
         <v>346742</v>
@@ -3323,11 +3323,11 @@
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32">
-        <v>60</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="A32" t="s">
         <v>29</v>
+      </c>
+      <c r="B32">
+        <v>60</v>
       </c>
       <c r="C32">
         <v>346743</v>
@@ -3412,11 +3412,11 @@
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33">
-        <v>60</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="A33" t="s">
         <v>29</v>
+      </c>
+      <c r="B33">
+        <v>60</v>
       </c>
       <c r="C33">
         <v>346743</v>
@@ -3501,11 +3501,11 @@
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34">
-        <v>60</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="A34" t="s">
         <v>29</v>
+      </c>
+      <c r="B34">
+        <v>60</v>
       </c>
       <c r="C34">
         <v>346743</v>
@@ -3590,11 +3590,11 @@
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35">
-        <v>60</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="A35" t="s">
         <v>29</v>
+      </c>
+      <c r="B35">
+        <v>60</v>
       </c>
       <c r="C35">
         <v>346743</v>
@@ -3679,11 +3679,11 @@
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36">
-        <v>60</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="A36" t="s">
         <v>29</v>
+      </c>
+      <c r="B36">
+        <v>60</v>
       </c>
       <c r="C36">
         <v>346743</v>
@@ -3768,11 +3768,11 @@
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37">
-        <v>60</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="A37" t="s">
         <v>29</v>
+      </c>
+      <c r="B37">
+        <v>60</v>
       </c>
       <c r="C37">
         <v>346743</v>
@@ -3857,11 +3857,11 @@
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38">
-        <v>60</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="A38" t="s">
         <v>29</v>
+      </c>
+      <c r="B38">
+        <v>60</v>
       </c>
       <c r="C38">
         <v>346744</v>
@@ -3946,11 +3946,11 @@
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39">
-        <v>60</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="A39" t="s">
         <v>29</v>
+      </c>
+      <c r="B39">
+        <v>60</v>
       </c>
       <c r="C39">
         <v>346744</v>
@@ -4035,11 +4035,11 @@
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40">
-        <v>60</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="A40" t="s">
         <v>29</v>
+      </c>
+      <c r="B40">
+        <v>60</v>
       </c>
       <c r="C40">
         <v>346744</v>
@@ -4124,11 +4124,11 @@
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41">
-        <v>60</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="A41" t="s">
         <v>29</v>
+      </c>
+      <c r="B41">
+        <v>60</v>
       </c>
       <c r="C41">
         <v>346744</v>
@@ -4213,11 +4213,11 @@
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42">
-        <v>60</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="A42" t="s">
         <v>29</v>
+      </c>
+      <c r="B42">
+        <v>60</v>
       </c>
       <c r="C42">
         <v>346744</v>
@@ -4302,11 +4302,11 @@
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43">
-        <v>60</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="A43" t="s">
         <v>29</v>
+      </c>
+      <c r="B43">
+        <v>60</v>
       </c>
       <c r="C43">
         <v>346745</v>
@@ -4391,11 +4391,11 @@
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44">
-        <v>60</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="A44" t="s">
         <v>29</v>
+      </c>
+      <c r="B44">
+        <v>60</v>
       </c>
       <c r="C44">
         <v>346745</v>
@@ -4480,11 +4480,11 @@
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45">
-        <v>60</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="A45" t="s">
         <v>29</v>
+      </c>
+      <c r="B45">
+        <v>60</v>
       </c>
       <c r="C45">
         <v>346745</v>
@@ -4569,11 +4569,11 @@
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46">
-        <v>60</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="A46" t="s">
         <v>29</v>
+      </c>
+      <c r="B46">
+        <v>60</v>
       </c>
       <c r="C46">
         <v>346745</v>
@@ -4658,11 +4658,11 @@
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47">
-        <v>60</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="A47" t="s">
         <v>29</v>
+      </c>
+      <c r="B47">
+        <v>60</v>
       </c>
       <c r="C47">
         <v>346746</v>
@@ -4747,11 +4747,11 @@
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48">
-        <v>60</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="A48" t="s">
         <v>29</v>
+      </c>
+      <c r="B48">
+        <v>60</v>
       </c>
       <c r="C48">
         <v>346746</v>
@@ -4836,11 +4836,11 @@
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49">
-        <v>60</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="A49" t="s">
         <v>29</v>
+      </c>
+      <c r="B49">
+        <v>60</v>
       </c>
       <c r="C49">
         <v>346747</v>
@@ -4925,11 +4925,11 @@
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50">
-        <v>60</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="A50" t="s">
         <v>29</v>
+      </c>
+      <c r="B50">
+        <v>60</v>
       </c>
       <c r="C50">
         <v>346747</v>
@@ -5014,11 +5014,11 @@
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51">
-        <v>60</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="A51" t="s">
         <v>29</v>
+      </c>
+      <c r="B51">
+        <v>60</v>
       </c>
       <c r="C51">
         <v>346747</v>
@@ -5103,11 +5103,11 @@
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52">
-        <v>60</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="A52" t="s">
         <v>29</v>
+      </c>
+      <c r="B52">
+        <v>60</v>
       </c>
       <c r="C52">
         <v>346747</v>
@@ -5192,11 +5192,11 @@
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53">
-        <v>60</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="A53" t="s">
         <v>29</v>
+      </c>
+      <c r="B53">
+        <v>60</v>
       </c>
       <c r="C53">
         <v>346748</v>
@@ -5281,11 +5281,11 @@
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54">
-        <v>60</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="A54" t="s">
         <v>29</v>
+      </c>
+      <c r="B54">
+        <v>60</v>
       </c>
       <c r="C54">
         <v>346748</v>
@@ -5370,11 +5370,11 @@
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55">
-        <v>60</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="A55" t="s">
         <v>29</v>
+      </c>
+      <c r="B55">
+        <v>60</v>
       </c>
       <c r="C55">
         <v>346749</v>
@@ -5459,11 +5459,11 @@
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56">
-        <v>60</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="A56" t="s">
         <v>29</v>
+      </c>
+      <c r="B56">
+        <v>60</v>
       </c>
       <c r="C56">
         <v>346749</v>
@@ -5548,11 +5548,11 @@
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57">
-        <v>60</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="A57" t="s">
         <v>29</v>
+      </c>
+      <c r="B57">
+        <v>60</v>
       </c>
       <c r="C57">
         <v>346750</v>
@@ -5637,11 +5637,11 @@
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58">
-        <v>60</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="A58" t="s">
         <v>29</v>
+      </c>
+      <c r="B58">
+        <v>60</v>
       </c>
       <c r="C58">
         <v>346750</v>
@@ -5726,11 +5726,11 @@
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59">
-        <v>60</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="A59" t="s">
         <v>29</v>
+      </c>
+      <c r="B59">
+        <v>60</v>
       </c>
       <c r="C59">
         <v>346751</v>
@@ -5815,11 +5815,11 @@
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60">
-        <v>60</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="A60" t="s">
         <v>29</v>
+      </c>
+      <c r="B60">
+        <v>60</v>
       </c>
       <c r="C60">
         <v>346751</v>
@@ -5904,11 +5904,11 @@
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="A61" t="s">
         <v>29</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
       </c>
       <c r="C61">
         <v>346752</v>
@@ -5993,11 +5993,11 @@
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="A62" t="s">
         <v>29</v>
+      </c>
+      <c r="B62">
+        <v>60</v>
       </c>
       <c r="C62">
         <v>346752</v>
@@ -6082,11 +6082,11 @@
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63">
-        <v>60</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="A63" t="s">
         <v>29</v>
+      </c>
+      <c r="B63">
+        <v>60</v>
       </c>
       <c r="C63">
         <v>346753</v>
@@ -6171,11 +6171,11 @@
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64">
-        <v>60</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="A64" t="s">
         <v>29</v>
+      </c>
+      <c r="B64">
+        <v>60</v>
       </c>
       <c r="C64">
         <v>346753</v>
@@ -6260,11 +6260,11 @@
       </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65">
-        <v>60</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="A65" t="s">
         <v>29</v>
+      </c>
+      <c r="B65">
+        <v>60</v>
       </c>
       <c r="C65">
         <v>346754</v>
@@ -6349,11 +6349,11 @@
       </c>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66">
-        <v>60</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="A66" t="s">
         <v>29</v>
+      </c>
+      <c r="B66">
+        <v>60</v>
       </c>
       <c r="C66">
         <v>346754</v>
@@ -6438,11 +6438,11 @@
       </c>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67">
-        <v>60</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="A67" t="s">
         <v>29</v>
+      </c>
+      <c r="B67">
+        <v>60</v>
       </c>
       <c r="C67">
         <v>346755</v>
@@ -6527,11 +6527,11 @@
       </c>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68">
-        <v>60</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="A68" t="s">
         <v>29</v>
+      </c>
+      <c r="B68">
+        <v>60</v>
       </c>
       <c r="C68">
         <v>346755</v>
@@ -6616,11 +6616,11 @@
       </c>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69">
-        <v>60</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="A69" t="s">
         <v>29</v>
+      </c>
+      <c r="B69">
+        <v>60</v>
       </c>
       <c r="C69">
         <v>346756</v>
@@ -6705,11 +6705,11 @@
       </c>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70">
-        <v>60</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="A70" t="s">
         <v>29</v>
+      </c>
+      <c r="B70">
+        <v>60</v>
       </c>
       <c r="C70">
         <v>346756</v>
@@ -6794,11 +6794,11 @@
       </c>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71">
-        <v>60</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="A71" t="s">
         <v>29</v>
+      </c>
+      <c r="B71">
+        <v>60</v>
       </c>
       <c r="C71">
         <v>346757</v>
@@ -6883,11 +6883,11 @@
       </c>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72">
-        <v>60</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="A72" t="s">
         <v>29</v>
+      </c>
+      <c r="B72">
+        <v>60</v>
       </c>
       <c r="C72">
         <v>346757</v>
@@ -6972,11 +6972,11 @@
       </c>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73">
-        <v>60</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="A73" t="s">
         <v>29</v>
+      </c>
+      <c r="B73">
+        <v>60</v>
       </c>
       <c r="C73">
         <v>346758</v>
@@ -7061,11 +7061,11 @@
       </c>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74">
-        <v>60</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="A74" t="s">
         <v>29</v>
+      </c>
+      <c r="B74">
+        <v>60</v>
       </c>
       <c r="C74">
         <v>346758</v>
@@ -7150,11 +7150,11 @@
       </c>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75">
-        <v>60</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="A75" t="s">
         <v>29</v>
+      </c>
+      <c r="B75">
+        <v>60</v>
       </c>
       <c r="C75">
         <v>346759</v>
@@ -7239,11 +7239,11 @@
       </c>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76">
-        <v>60</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="A76" t="s">
         <v>29</v>
+      </c>
+      <c r="B76">
+        <v>60</v>
       </c>
       <c r="C76">
         <v>346759</v>
@@ -7328,11 +7328,11 @@
       </c>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77">
-        <v>60</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="A77" t="s">
         <v>29</v>
+      </c>
+      <c r="B77">
+        <v>60</v>
       </c>
       <c r="C77">
         <v>346760</v>
@@ -7417,11 +7417,11 @@
       </c>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78">
-        <v>60</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="A78" t="s">
         <v>29</v>
+      </c>
+      <c r="B78">
+        <v>60</v>
       </c>
       <c r="C78">
         <v>346760</v>
@@ -7506,11 +7506,11 @@
       </c>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79">
-        <v>60</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="A79" t="s">
         <v>29</v>
+      </c>
+      <c r="B79">
+        <v>60</v>
       </c>
       <c r="C79">
         <v>346761</v>
@@ -7595,11 +7595,11 @@
       </c>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80">
-        <v>60</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="A80" t="s">
         <v>29</v>
+      </c>
+      <c r="B80">
+        <v>60</v>
       </c>
       <c r="C80">
         <v>346761</v>
@@ -7684,11 +7684,11 @@
       </c>
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81">
-        <v>60</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="A81" t="s">
         <v>29</v>
+      </c>
+      <c r="B81">
+        <v>60</v>
       </c>
       <c r="C81">
         <v>346762</v>
@@ -7773,11 +7773,11 @@
       </c>
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82">
-        <v>60</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="A82" t="s">
         <v>29</v>
+      </c>
+      <c r="B82">
+        <v>60</v>
       </c>
       <c r="C82">
         <v>346762</v>
@@ -7862,11 +7862,11 @@
       </c>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83">
-        <v>60</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="A83" t="s">
         <v>29</v>
+      </c>
+      <c r="B83">
+        <v>60</v>
       </c>
       <c r="C83">
         <v>346763</v>
@@ -7951,11 +7951,11 @@
       </c>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84">
-        <v>60</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="A84" t="s">
         <v>29</v>
+      </c>
+      <c r="B84">
+        <v>60</v>
       </c>
       <c r="C84">
         <v>346763</v>
@@ -8040,11 +8040,11 @@
       </c>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85">
+      <c r="A85" t="s">
+        <v>59</v>
+      </c>
+      <c r="B85">
         <v>447</v>
-      </c>
-      <c r="B85" t="s">
-        <v>59</v>
       </c>
       <c r="C85">
         <v>346764</v>
@@ -8129,11 +8129,11 @@
       </c>
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86">
+      <c r="A86" t="s">
+        <v>61</v>
+      </c>
+      <c r="B86">
         <v>2003</v>
-      </c>
-      <c r="B86" t="s">
-        <v>61</v>
       </c>
       <c r="C86">
         <v>346715</v>
@@ -8218,11 +8218,11 @@
       </c>
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87">
+      <c r="A87" t="s">
+        <v>61</v>
+      </c>
+      <c r="B87">
         <v>2003</v>
-      </c>
-      <c r="B87" t="s">
-        <v>61</v>
       </c>
       <c r="C87">
         <v>346715</v>
@@ -8307,11 +8307,11 @@
       </c>
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88">
+      <c r="A88" t="s">
+        <v>61</v>
+      </c>
+      <c r="B88">
         <v>2003</v>
-      </c>
-      <c r="B88" t="s">
-        <v>61</v>
       </c>
       <c r="C88">
         <v>346715</v>
@@ -8396,11 +8396,11 @@
       </c>
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89">
+      <c r="A89" t="s">
+        <v>61</v>
+      </c>
+      <c r="B89">
         <v>2003</v>
-      </c>
-      <c r="B89" t="s">
-        <v>61</v>
       </c>
       <c r="C89">
         <v>346716</v>
@@ -8485,11 +8485,11 @@
       </c>
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90">
+      <c r="A90" t="s">
+        <v>61</v>
+      </c>
+      <c r="B90">
         <v>2003</v>
-      </c>
-      <c r="B90" t="s">
-        <v>61</v>
       </c>
       <c r="C90">
         <v>346716</v>
@@ -8574,11 +8574,11 @@
       </c>
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91">
+      <c r="A91" t="s">
+        <v>61</v>
+      </c>
+      <c r="B91">
         <v>2003</v>
-      </c>
-      <c r="B91" t="s">
-        <v>61</v>
       </c>
       <c r="C91">
         <v>346716</v>
@@ -8663,11 +8663,11 @@
       </c>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92">
+      <c r="A92" t="s">
+        <v>61</v>
+      </c>
+      <c r="B92">
         <v>2003</v>
-      </c>
-      <c r="B92" t="s">
-        <v>61</v>
       </c>
       <c r="C92">
         <v>346717</v>
@@ -8752,11 +8752,11 @@
       </c>
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93">
+      <c r="A93" t="s">
+        <v>61</v>
+      </c>
+      <c r="B93">
         <v>2003</v>
-      </c>
-      <c r="B93" t="s">
-        <v>61</v>
       </c>
       <c r="C93">
         <v>346717</v>
@@ -8841,11 +8841,11 @@
       </c>
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94">
+      <c r="A94" t="s">
+        <v>61</v>
+      </c>
+      <c r="B94">
         <v>2003</v>
-      </c>
-      <c r="B94" t="s">
-        <v>61</v>
       </c>
       <c r="C94">
         <v>346717</v>
@@ -8930,11 +8930,11 @@
       </c>
     </row>
     <row r="95" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95">
+      <c r="A95" t="s">
+        <v>61</v>
+      </c>
+      <c r="B95">
         <v>2003</v>
-      </c>
-      <c r="B95" t="s">
-        <v>61</v>
       </c>
       <c r="C95">
         <v>346718</v>
@@ -9019,11 +9019,11 @@
       </c>
     </row>
     <row r="96" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96">
+      <c r="A96" t="s">
+        <v>61</v>
+      </c>
+      <c r="B96">
         <v>2003</v>
-      </c>
-      <c r="B96" t="s">
-        <v>61</v>
       </c>
       <c r="C96">
         <v>346719</v>
@@ -9108,11 +9108,11 @@
       </c>
     </row>
     <row r="97" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97">
+      <c r="A97" t="s">
+        <v>61</v>
+      </c>
+      <c r="B97">
         <v>2003</v>
-      </c>
-      <c r="B97" t="s">
-        <v>61</v>
       </c>
       <c r="C97">
         <v>346719</v>
@@ -9197,11 +9197,11 @@
       </c>
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98">
+      <c r="A98" t="s">
+        <v>61</v>
+      </c>
+      <c r="B98">
         <v>2003</v>
-      </c>
-      <c r="B98" t="s">
-        <v>61</v>
       </c>
       <c r="C98">
         <v>346719</v>
@@ -9286,11 +9286,11 @@
       </c>
     </row>
     <row r="99" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99">
+      <c r="A99" t="s">
+        <v>61</v>
+      </c>
+      <c r="B99">
         <v>2003</v>
-      </c>
-      <c r="B99" t="s">
-        <v>61</v>
       </c>
       <c r="C99">
         <v>346720</v>
@@ -9375,11 +9375,11 @@
       </c>
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100">
+      <c r="A100" t="s">
+        <v>61</v>
+      </c>
+      <c r="B100">
         <v>2003</v>
-      </c>
-      <c r="B100" t="s">
-        <v>61</v>
       </c>
       <c r="C100">
         <v>346720</v>
@@ -9464,11 +9464,11 @@
       </c>
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101">
+      <c r="A101" t="s">
+        <v>61</v>
+      </c>
+      <c r="B101">
         <v>2003</v>
-      </c>
-      <c r="B101" t="s">
-        <v>61</v>
       </c>
       <c r="C101">
         <v>346720</v>
@@ -9553,11 +9553,11 @@
       </c>
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102">
+      <c r="A102" t="s">
+        <v>61</v>
+      </c>
+      <c r="B102">
         <v>2003</v>
-      </c>
-      <c r="B102" t="s">
-        <v>61</v>
       </c>
       <c r="C102">
         <v>346721</v>
@@ -9642,11 +9642,11 @@
       </c>
     </row>
     <row r="103" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103">
+      <c r="A103" t="s">
+        <v>61</v>
+      </c>
+      <c r="B103">
         <v>2003</v>
-      </c>
-      <c r="B103" t="s">
-        <v>61</v>
       </c>
       <c r="C103">
         <v>346721</v>
@@ -9731,11 +9731,11 @@
       </c>
     </row>
     <row r="104" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104">
+      <c r="A104" t="s">
+        <v>61</v>
+      </c>
+      <c r="B104">
         <v>2003</v>
-      </c>
-      <c r="B104" t="s">
-        <v>61</v>
       </c>
       <c r="C104">
         <v>346721</v>
@@ -9820,11 +9820,11 @@
       </c>
     </row>
     <row r="105" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105">
+      <c r="A105" t="s">
+        <v>61</v>
+      </c>
+      <c r="B105">
         <v>2003</v>
-      </c>
-      <c r="B105" t="s">
-        <v>61</v>
       </c>
       <c r="C105">
         <v>346722</v>
@@ -9909,11 +9909,11 @@
       </c>
     </row>
     <row r="106" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106">
+      <c r="A106" t="s">
+        <v>61</v>
+      </c>
+      <c r="B106">
         <v>2003</v>
-      </c>
-      <c r="B106" t="s">
-        <v>61</v>
       </c>
       <c r="C106">
         <v>346722</v>
@@ -9998,11 +9998,11 @@
       </c>
     </row>
     <row r="107" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107">
+      <c r="A107" t="s">
+        <v>61</v>
+      </c>
+      <c r="B107">
         <v>2003</v>
-      </c>
-      <c r="B107" t="s">
-        <v>61</v>
       </c>
       <c r="C107">
         <v>346722</v>
@@ -10087,11 +10087,11 @@
       </c>
     </row>
     <row r="108" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108">
+      <c r="A108" t="s">
+        <v>66</v>
+      </c>
+      <c r="B108">
         <v>2987</v>
-      </c>
-      <c r="B108" t="s">
-        <v>66</v>
       </c>
       <c r="C108">
         <v>346732</v>
@@ -10176,11 +10176,11 @@
       </c>
     </row>
     <row r="109" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109">
+      <c r="A109" t="s">
+        <v>66</v>
+      </c>
+      <c r="B109">
         <v>2987</v>
-      </c>
-      <c r="B109" t="s">
-        <v>66</v>
       </c>
       <c r="C109">
         <v>346732</v>
@@ -10265,11 +10265,11 @@
       </c>
     </row>
     <row r="110" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110">
+      <c r="A110" t="s">
+        <v>66</v>
+      </c>
+      <c r="B110">
         <v>2987</v>
-      </c>
-      <c r="B110" t="s">
-        <v>66</v>
       </c>
       <c r="C110">
         <v>346732</v>
@@ -10354,11 +10354,11 @@
       </c>
     </row>
     <row r="111" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111">
+      <c r="A111" t="s">
+        <v>66</v>
+      </c>
+      <c r="B111">
         <v>2987</v>
-      </c>
-      <c r="B111" t="s">
-        <v>66</v>
       </c>
       <c r="C111">
         <v>346733</v>
@@ -10443,11 +10443,11 @@
       </c>
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112">
+      <c r="A112" t="s">
+        <v>66</v>
+      </c>
+      <c r="B112">
         <v>2987</v>
-      </c>
-      <c r="B112" t="s">
-        <v>66</v>
       </c>
       <c r="C112">
         <v>346733</v>
@@ -10532,11 +10532,11 @@
       </c>
     </row>
     <row r="113" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113">
+      <c r="A113" t="s">
+        <v>66</v>
+      </c>
+      <c r="B113">
         <v>2987</v>
-      </c>
-      <c r="B113" t="s">
-        <v>66</v>
       </c>
       <c r="C113">
         <v>346733</v>
@@ -10621,11 +10621,11 @@
       </c>
     </row>
     <row r="114" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114">
+      <c r="A114" t="s">
+        <v>66</v>
+      </c>
+      <c r="B114">
         <v>2987</v>
-      </c>
-      <c r="B114" t="s">
-        <v>66</v>
       </c>
       <c r="C114">
         <v>346734</v>
@@ -10710,11 +10710,11 @@
       </c>
     </row>
     <row r="115" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115">
+      <c r="A115" t="s">
+        <v>66</v>
+      </c>
+      <c r="B115">
         <v>2987</v>
-      </c>
-      <c r="B115" t="s">
-        <v>66</v>
       </c>
       <c r="C115">
         <v>346734</v>
@@ -10799,11 +10799,11 @@
       </c>
     </row>
     <row r="116" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A116">
+      <c r="A116" t="s">
+        <v>66</v>
+      </c>
+      <c r="B116">
         <v>2987</v>
-      </c>
-      <c r="B116" t="s">
-        <v>66</v>
       </c>
       <c r="C116">
         <v>346734</v>
@@ -10888,11 +10888,11 @@
       </c>
     </row>
     <row r="117" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A117">
+      <c r="A117" t="s">
+        <v>66</v>
+      </c>
+      <c r="B117">
         <v>2987</v>
-      </c>
-      <c r="B117" t="s">
-        <v>66</v>
       </c>
       <c r="C117">
         <v>346735</v>
@@ -10977,11 +10977,11 @@
       </c>
     </row>
     <row r="118" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118">
+      <c r="A118" t="s">
+        <v>66</v>
+      </c>
+      <c r="B118">
         <v>2987</v>
-      </c>
-      <c r="B118" t="s">
-        <v>66</v>
       </c>
       <c r="C118">
         <v>346735</v>
@@ -11066,11 +11066,11 @@
       </c>
     </row>
     <row r="119" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A119">
+      <c r="A119" t="s">
+        <v>66</v>
+      </c>
+      <c r="B119">
         <v>2987</v>
-      </c>
-      <c r="B119" t="s">
-        <v>66</v>
       </c>
       <c r="C119">
         <v>346735</v>
@@ -11155,11 +11155,11 @@
       </c>
     </row>
     <row r="120" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A120">
+      <c r="A120" t="s">
+        <v>66</v>
+      </c>
+      <c r="B120">
         <v>2987</v>
-      </c>
-      <c r="B120" t="s">
-        <v>66</v>
       </c>
       <c r="C120">
         <v>346736</v>
@@ -11244,11 +11244,11 @@
       </c>
     </row>
     <row r="121" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A121">
+      <c r="A121" t="s">
+        <v>66</v>
+      </c>
+      <c r="B121">
         <v>2987</v>
-      </c>
-      <c r="B121" t="s">
-        <v>66</v>
       </c>
       <c r="C121">
         <v>346736</v>
@@ -11333,11 +11333,11 @@
       </c>
     </row>
     <row r="122" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A122">
+      <c r="A122" t="s">
+        <v>66</v>
+      </c>
+      <c r="B122">
         <v>2987</v>
-      </c>
-      <c r="B122" t="s">
-        <v>66</v>
       </c>
       <c r="C122">
         <v>346736</v>
@@ -11422,11 +11422,11 @@
       </c>
     </row>
     <row r="123" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A123">
+      <c r="A123" t="s">
+        <v>67</v>
+      </c>
+      <c r="B123">
         <v>5586</v>
-      </c>
-      <c r="B123" t="s">
-        <v>67</v>
       </c>
       <c r="C123">
         <v>346727</v>
@@ -11511,11 +11511,11 @@
       </c>
     </row>
     <row r="124" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A124">
+      <c r="A124" t="s">
+        <v>67</v>
+      </c>
+      <c r="B124">
         <v>5586</v>
-      </c>
-      <c r="B124" t="s">
-        <v>67</v>
       </c>
       <c r="C124">
         <v>346727</v>
@@ -11600,11 +11600,11 @@
       </c>
     </row>
     <row r="125" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125">
+      <c r="A125" t="s">
+        <v>67</v>
+      </c>
+      <c r="B125">
         <v>5586</v>
-      </c>
-      <c r="B125" t="s">
-        <v>67</v>
       </c>
       <c r="C125">
         <v>346727</v>
@@ -11689,11 +11689,11 @@
       </c>
     </row>
     <row r="126" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126">
+      <c r="A126" t="s">
+        <v>67</v>
+      </c>
+      <c r="B126">
         <v>5586</v>
-      </c>
-      <c r="B126" t="s">
-        <v>67</v>
       </c>
       <c r="C126">
         <v>346728</v>
@@ -11778,11 +11778,11 @@
       </c>
     </row>
     <row r="127" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A127">
+      <c r="A127" t="s">
+        <v>67</v>
+      </c>
+      <c r="B127">
         <v>5586</v>
-      </c>
-      <c r="B127" t="s">
-        <v>67</v>
       </c>
       <c r="C127">
         <v>346728</v>
@@ -11867,11 +11867,11 @@
       </c>
     </row>
     <row r="128" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A128">
+      <c r="A128" t="s">
+        <v>67</v>
+      </c>
+      <c r="B128">
         <v>5586</v>
-      </c>
-      <c r="B128" t="s">
-        <v>67</v>
       </c>
       <c r="C128">
         <v>346728</v>
@@ -11956,11 +11956,11 @@
       </c>
     </row>
     <row r="129" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A129">
+      <c r="A129" t="s">
+        <v>67</v>
+      </c>
+      <c r="B129">
         <v>5586</v>
-      </c>
-      <c r="B129" t="s">
-        <v>67</v>
       </c>
       <c r="C129">
         <v>346729</v>
@@ -12045,11 +12045,11 @@
       </c>
     </row>
     <row r="130" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A130">
+      <c r="A130" t="s">
+        <v>67</v>
+      </c>
+      <c r="B130">
         <v>5586</v>
-      </c>
-      <c r="B130" t="s">
-        <v>67</v>
       </c>
       <c r="C130">
         <v>346729</v>
@@ -12134,11 +12134,11 @@
       </c>
     </row>
     <row r="131" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A131">
+      <c r="A131" t="s">
+        <v>67</v>
+      </c>
+      <c r="B131">
         <v>5586</v>
-      </c>
-      <c r="B131" t="s">
-        <v>67</v>
       </c>
       <c r="C131">
         <v>346729</v>
@@ -12223,11 +12223,11 @@
       </c>
     </row>
     <row r="132" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A132">
+      <c r="A132" t="s">
+        <v>67</v>
+      </c>
+      <c r="B132">
         <v>5586</v>
-      </c>
-      <c r="B132" t="s">
-        <v>67</v>
       </c>
       <c r="C132">
         <v>346730</v>
@@ -12312,11 +12312,11 @@
       </c>
     </row>
     <row r="133" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A133">
+      <c r="A133" t="s">
+        <v>67</v>
+      </c>
+      <c r="B133">
         <v>5586</v>
-      </c>
-      <c r="B133" t="s">
-        <v>67</v>
       </c>
       <c r="C133">
         <v>346730</v>
@@ -12401,11 +12401,11 @@
       </c>
     </row>
     <row r="134" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A134">
+      <c r="A134" t="s">
+        <v>67</v>
+      </c>
+      <c r="B134">
         <v>5586</v>
-      </c>
-      <c r="B134" t="s">
-        <v>67</v>
       </c>
       <c r="C134">
         <v>346730</v>
@@ -12490,11 +12490,11 @@
       </c>
     </row>
     <row r="135" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A135">
+      <c r="A135" t="s">
+        <v>67</v>
+      </c>
+      <c r="B135">
         <v>5586</v>
-      </c>
-      <c r="B135" t="s">
-        <v>67</v>
       </c>
       <c r="C135">
         <v>346731</v>
@@ -12579,11 +12579,11 @@
       </c>
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A136">
+      <c r="A136" t="s">
+        <v>67</v>
+      </c>
+      <c r="B136">
         <v>5586</v>
-      </c>
-      <c r="B136" t="s">
-        <v>67</v>
       </c>
       <c r="C136">
         <v>346731</v>
@@ -12668,11 +12668,11 @@
       </c>
     </row>
     <row r="137" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A137">
+      <c r="A137" t="s">
+        <v>67</v>
+      </c>
+      <c r="B137">
         <v>5586</v>
-      </c>
-      <c r="B137" t="s">
-        <v>67</v>
       </c>
       <c r="C137">
         <v>346731</v>
@@ -12757,11 +12757,11 @@
       </c>
     </row>
     <row r="138" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A138">
+      <c r="A138" t="s">
+        <v>68</v>
+      </c>
+      <c r="B138">
         <v>7502</v>
-      </c>
-      <c r="B138" t="s">
-        <v>68</v>
       </c>
       <c r="C138">
         <v>346723</v>
@@ -12846,11 +12846,11 @@
       </c>
     </row>
     <row r="139" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A139">
+      <c r="A139" t="s">
+        <v>68</v>
+      </c>
+      <c r="B139">
         <v>7502</v>
-      </c>
-      <c r="B139" t="s">
-        <v>68</v>
       </c>
       <c r="C139">
         <v>346723</v>
@@ -12935,11 +12935,11 @@
       </c>
     </row>
     <row r="140" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A140">
+      <c r="A140" t="s">
+        <v>68</v>
+      </c>
+      <c r="B140">
         <v>7502</v>
-      </c>
-      <c r="B140" t="s">
-        <v>68</v>
       </c>
       <c r="C140">
         <v>346723</v>
@@ -13024,11 +13024,11 @@
       </c>
     </row>
     <row r="141" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A141">
+      <c r="A141" t="s">
+        <v>68</v>
+      </c>
+      <c r="B141">
         <v>7502</v>
-      </c>
-      <c r="B141" t="s">
-        <v>68</v>
       </c>
       <c r="C141">
         <v>346724</v>
@@ -13113,11 +13113,11 @@
       </c>
     </row>
     <row r="142" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A142">
+      <c r="A142" t="s">
+        <v>68</v>
+      </c>
+      <c r="B142">
         <v>7502</v>
-      </c>
-      <c r="B142" t="s">
-        <v>68</v>
       </c>
       <c r="C142">
         <v>346724</v>
@@ -13202,11 +13202,11 @@
       </c>
     </row>
     <row r="143" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A143">
+      <c r="A143" t="s">
+        <v>68</v>
+      </c>
+      <c r="B143">
         <v>7502</v>
-      </c>
-      <c r="B143" t="s">
-        <v>68</v>
       </c>
       <c r="C143">
         <v>346724</v>
@@ -13291,11 +13291,11 @@
       </c>
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A144">
+      <c r="A144" t="s">
+        <v>68</v>
+      </c>
+      <c r="B144">
         <v>7502</v>
-      </c>
-      <c r="B144" t="s">
-        <v>68</v>
       </c>
       <c r="C144">
         <v>346725</v>
@@ -13380,11 +13380,11 @@
       </c>
     </row>
     <row r="145" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A145">
+      <c r="A145" t="s">
+        <v>68</v>
+      </c>
+      <c r="B145">
         <v>7502</v>
-      </c>
-      <c r="B145" t="s">
-        <v>68</v>
       </c>
       <c r="C145">
         <v>346725</v>
@@ -13469,11 +13469,11 @@
       </c>
     </row>
     <row r="146" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A146">
+      <c r="A146" t="s">
+        <v>68</v>
+      </c>
+      <c r="B146">
         <v>7502</v>
-      </c>
-      <c r="B146" t="s">
-        <v>68</v>
       </c>
       <c r="C146">
         <v>346725</v>
@@ -13558,11 +13558,11 @@
       </c>
     </row>
     <row r="147" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A147">
+      <c r="A147" t="s">
+        <v>68</v>
+      </c>
+      <c r="B147">
         <v>7502</v>
-      </c>
-      <c r="B147" t="s">
-        <v>68</v>
       </c>
       <c r="C147">
         <v>346726</v>
@@ -13647,11 +13647,11 @@
       </c>
     </row>
     <row r="148" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A148">
+      <c r="A148" t="s">
+        <v>68</v>
+      </c>
+      <c r="B148">
         <v>7502</v>
-      </c>
-      <c r="B148" t="s">
-        <v>68</v>
       </c>
       <c r="C148">
         <v>346726</v>
@@ -13736,11 +13736,11 @@
       </c>
     </row>
     <row r="149" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A149">
+      <c r="A149" t="s">
+        <v>68</v>
+      </c>
+      <c r="B149">
         <v>7502</v>
-      </c>
-      <c r="B149" t="s">
-        <v>68</v>
       </c>
       <c r="C149">
         <v>346726</v>
